--- a/result/test.xlsx
+++ b/result/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,65 +441,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Knn</t>
+          <t>Best Pred</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Grouping Value</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>LinearModel</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>err</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>reasoning</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>LocalModel</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>pred_type</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>predictions</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>exp value local</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>GBPred</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Best Pred</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>class</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Reliability</t>
         </is>
@@ -515,91 +460,9 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1793960076866169</v>
+        <v>0.048</v>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>no data</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Linear</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>[-0.30647492 -0.51532732 -0.51532732 -0.30647492 -0.58820481 -0.58820481
- -0.30647492 -0.58820481 -0.58820481 -0.58820481 -0.58820481 -0.58820481
- -0.58820481 -0.30647492 -0.30647492 -0.30647492 -0.8699347  -0.58820481
- -0.58820481 -0.58820481 -0.02474503 -0.51532732 -0.30647492 -0.30647492
- -0.02474503 -0.02474503 -0.02474503 -0.30647492 -0.8699347  -0.58820481
- -0.30647492 -0.30647492 -0.30647492 -0.58820481 -0.58820481 -0.51532732
- -0.30647492 -0.30647492 -1.15166459 -0.02474503 -0.30647492 -0.58820481
- -0.58820481  0.25698486 -0.58820481 -0.02474503 -0.58820481 -0.58820481
- -0.02474503 -0.8699347  -0.58820481 -0.02474503 -0.02474503 -0.58820481
- -0.58820481 -0.02474503 -0.30647492 -0.79705721 -0.58820481 -0.8699347
- -0.8699347  -0.30647492 -0.8699347  -0.8699347  -0.51532732 -0.58820481
- -0.58820481 -0.8699347  -0.58820481  0.25698486 -0.58820481 -0.8699347
- -0.8699347  -0.8699347  -0.8699347  -0.8699347  -0.79705721 -0.8699347
- -1.15166459 -0.02474503 -0.8699347  -0.8699347   0.25698486 -0.79705721
- -0.58820481 -0.79705721 -0.58820481 -0.58820481 -0.58820481 -1.15166459
- -0.58820481 -0.8699347  -0.79705721 -0.8699347  -1.15166459 -1.15166459
- -0.8699347  -1.15166459 -0.44244982 -0.8699347  -0.79705721 -0.8699347
- -1.15166459 -0.79705721 -0.8699347  -0.8699347  -0.79705721 -0.79705721
- -1.15166459 -0.8699347  -0.58820481 -1.15166459 -1.15166459 -0.79705721
- -0.58820481 -0.8699347  -0.51532732 -0.8699347  -0.79705721 -0.44244982
- -0.58820481 -0.44244982 -1.15166459 -1.15166459 -1.15166459 -0.44244982
- -1.15166459 -1.15166459 -0.44244982 -0.44244982 -0.58820481 -1.15166459
- -1.15166459 -0.79705721 -0.8699347  -1.15166459 -0.8699347  -1.15166459
- -1.15166459 -0.79705721 -1.15166459 -1.15166459 -0.79705721 -1.15166459
- -1.15166459 -1.15166459 -0.44244982 -1.15166459 -1.15166459 -0.30647492
- -1.15166459 -1.15166459 -0.44244982 -0.44244982 -1.15166459 -1.15166459
- -1.15166459 -1.15166459 -0.44244982 -0.8699347  -1.15166459]</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0      1.471826
-1     -0.604249
-2     -0.894249
-3     -0.229040
-4     -0.642364
-         ...   
-156   -0.429992
-157   -0.831375
-158    0.677094
-159   -1.695517
-160   -0.078454
-Name: Experimental value, Length: 161, dtype: float64</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>0.5467764453025281</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="inlineStr">
         <is>
           <t>Low reliability</t>
         </is>
@@ -615,93 +478,9 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.4113719727538751</v>
+        <v>0.493142437269393</v>
       </c>
       <c r="D3" t="inlineStr">
-        <is>
-          <t>no data</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>-1.285</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[-1.01272699 -0.52755828 -0.58662727 -0.52755828 -0.52755828 -0.76383421
- -0.52755828 -0.64569625 -0.76383421 -0.76383421 -0.70476523 -1.22577685
- -0.64569625 -0.52755828 -0.64569625 -0.76383421 -0.95365801 -0.97688408
- -0.76383421 -0.52755828 -0.52755828 -0.85874611 -0.74060815 -0.52755828
- -0.95365801 -0.64569625 -0.85874611 -0.70476523 -0.74060815 -0.52755828
- -0.76383421 -0.52755828 -0.52755828 -0.52755828]</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0    -1.010030
-1     0.552621
-2    -0.413447
-3     0.723118
-4     0.433410
-5    -0.642132
-6     0.126897
-7    -1.001067
-8    -1.770883
-9    -0.843585
-10   -0.661389
-11    0.919734
-12   -0.761768
-13   -0.320386
-14    0.539758
-15   -1.112478
-16   -1.798503
-17   -0.155206
-18    0.037636
-19   -0.078280
-20    0.379072
-21   -2.400208
-22   -1.398451
-23   -1.274459
-24   -2.007302
-25   -1.611866
-26   -1.589482
-27   -0.588403
-28   -1.277194
-29   -0.394901
-30   -0.511215
-31   -0.768638
-32   -0.776961
-33   -2.358072
-Name: Experimental value, dtype: float64</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>0.493142437269393</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.493142437269393</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3</v>
-      </c>
-      <c r="O3" t="inlineStr">
         <is>
           <t>Low reliability</t>
         </is>
